--- a/server/app/templates/report_c.xlsx
+++ b/server/app/templates/report_c.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Staxi\server\app\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -19,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Код </t>
-  </si>
-  <si>
-    <t>А.Дата Время</t>
-  </si>
-  <si>
-    <t>Б.Время</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>А.Откуда</t>
   </si>
@@ -45,17 +31,20 @@
     <t>Телефон</t>
   </si>
   <si>
-    <t>И.О.</t>
-  </si>
-  <si>
     <t>Доп. информация</t>
+  </si>
+  <si>
+    <t>Имя Отчество</t>
+  </si>
+  <si>
+    <t>Дата Время</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,12 +145,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -171,27 +154,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,10 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,10 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,110 +450,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;8&amp;D &amp;T &amp;F</oddHeader>
   </headerFooter>

--- a/server/app/templates/report_c.xlsx
+++ b/server/app/templates/report_c.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Staxi\server\app\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -43,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,13 +168,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,9 +220,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" style="2" customWidth="1"/>
@@ -466,7 +481,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -476,7 +491,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -484,7 +499,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -492,7 +507,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -508,7 +523,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -533,7 +548,7 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;8&amp;D &amp;T &amp;F</oddHeader>

--- a/server/app/templates/report_c.xlsx
+++ b/server/app/templates/report_c.xlsx
@@ -476,8 +476,9 @@
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>

--- a/server/app/templates/report_c.xlsx
+++ b/server/app/templates/report_c.xlsx
@@ -42,7 +42,7 @@
     <t>Имя Отчество</t>
   </si>
   <si>
-    <t>Дата Время</t>
+    <t>Время</t>
   </si>
 </sst>
 </file>
@@ -474,11 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>

--- a/server/app/templates/report_c.xlsx
+++ b/server/app/templates/report_c.xlsx
@@ -39,10 +39,10 @@
     <t>Доп. информация</t>
   </si>
   <si>
-    <t>Имя Отчество</t>
-  </si>
-  <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>Ф. Имя Отчество</t>
   </si>
 </sst>
 </file>
@@ -476,9 +476,9 @@
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -510,7 +510,7 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
@@ -529,7 +529,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
